--- a/Assets/island/doc/设计.xlsx
+++ b/Assets/island/doc/设计.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="24360" windowHeight="15360" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="岛" sheetId="2" r:id="rId1"/>
     <sheet name="建筑" sheetId="1" r:id="rId2"/>
     <sheet name="成长线" sheetId="3" r:id="rId3"/>
     <sheet name="TODO" sheetId="5" r:id="rId4"/>
-    <sheet name="工作表2" sheetId="4" r:id="rId5"/>
+    <sheet name="随记" sheetId="4" r:id="rId5"/>
+    <sheet name="海" sheetId="6" r:id="rId6"/>
+    <sheet name="世界地图" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TODO!$D$1:$D$30</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcMode="manual" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -192,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
   <si>
     <t>tileSize:2x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +569,205 @@
   </si>
   <si>
     <t>毁灭者自爆炸弹的爪子模型合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岛记要</t>
+  </si>
+  <si>
+    <t>海岛大地图</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 寻找沉船</t>
+  </si>
+  <si>
+    <t>道具，地图碎片，资源</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 寻找宝臧地图碎片</t>
+  </si>
+  <si>
+    <t>碎片散落在世界各地，地图拼接完成后，可以查看到常规宝臧点，再收集不同药水（道具）滴在地图上可以看到特殊宝臧点及开启密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 海盗</t>
+  </si>
+  <si>
+    <t>剿灭海盗可以获得道具，资源，地图碎片，舰船。海盗是否也可以攻击玩家？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 海怪</t>
+  </si>
+  <si>
+    <t>把城内的购买宠物取消，改为在大地图上捕捉，先打败海怪，才能花金币捕获（用金币会不会很不友好？或者掉落海怪碎片？）。已经有海怪了就获得魂晶。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 交易</t>
+  </si>
+  <si>
+    <t>遇到玩家城时可以买卖，资源，道具，碎片都可以交易，平台收取一定的佣金（宝石）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 宝藏点</t>
+  </si>
+  <si>
+    <t>资源，宝石，道具。被采集后，随机刷新</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 据点（补给点）</t>
+  </si>
+  <si>
+    <t>可以占领，可以生产资源，每种资源的产能不一样。数量不能太多，要让玩家挣抢。占领是否永久？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 特殊宝藏点</t>
+  </si>
+  <si>
+    <t>产出物品待定（应该有宝石，海怪的魂晶）。在大地图上可见，但需要密码才可开启，表现可以考虑UI是大石门，石门上机关，需要转动正确才能打开。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 迷雾</t>
+  </si>
+  <si>
+    <t>玩家只能看到一定范围，可视范围受科技限制。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 装饰</t>
+  </si>
+  <si>
+    <t>石山，小岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 出征</t>
+  </si>
+  <si>
+    <t>消耗粮食和石油，可以在中途补给资源（舰船也可以补给）。出征队列受科技限制。每种船有一定运载能力，决定了拉资源的多少。出征的舰队相当于一盏灯，可视范围等于城的可视范围的一半。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 道具</t>
+  </si>
+  <si>
+    <t>建筑加速，航线加速，造船加速，地图药水，科技加速，护盾，建筑恢复药水，海怪复活药水</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 随机事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 主城中增加多角色</t>
+  </si>
+  <si>
+    <t>工人：修建筑的</t>
+  </si>
+  <si>
+    <t>捕鱼者：钓鱼的，可能钓到一些道具。可以升级，减少每次出海的时间及收获好物品的概率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 你说我做</t>
+  </si>
+  <si>
+    <t>让玩家参与游戏的开发，在游戏中加入论坛的入口。</t>
+  </si>
+  <si>
+    <t>马尾藻海 •咸海 •里海•死海•索尔顿海• 加利利海•阿拉弗拉海•巴厘海•班达海•马六甲海峡•俾斯麦海•渤海•保和海•卡莫特斯海•西里伯斯海•塞兰海•珊瑚海•东海•弗洛雷斯海•卡平塔里亚湾•泰国湾•哈马黑拉海•爪哇海•科罗海•摩鹿加海•菲律宾海•萨武海•日本海•鄂霍次克海• 濑户内海• 锡布延海• 所罗门海• 南中国海• 苏禄海•塔斯曼海• 米沙鄢海• 黄海• 白令海• 智利海• 奇洛埃海•阿拉斯加湾• 秘鲁格劳海• 萨利希海• 安达曼海• 马达班湾•阿拉伯海• 孟加拉湾• 亚丁湾• 阿曼湾• 拉克代夫海• 莫桑比克海峡• 波斯湾• 红海• 帝汶海• 阿蒙森海• 巴斯海峡• 别林斯高晋海• 合作海• 宇航员海• 戴维斯海• 德维尔海• 德雷克通道• 大澳大利亚海• 海湾圣文森特• 调查员海峡• 哈康七世国王海• 拉扎列夫海• 莫森海• 里瑟尔-拉森海 • 罗斯海• 斯科舍海• 索莫夫海• 斯宾塞湾• 威德尔海• 楚科奇海• 东西伯利亚海• 拉普捷夫海• 卡拉海• 巴伦支海• 伯朝拉海• 白海• 维多利亚女王海• 旺德尔海• 格陵兰海• 林肯海 • 巴芬湾• 古斯塔夫阿道夫王子海• 阿蒙森海湾• 哈德逊海峡• 哈德逊湾• 詹姆斯湾• 博福特海• 戴维斯海峡• 拉布拉多海• 圣劳伦斯湾• 缅因湾• 芬迪湾• 马萨诸塞湾• 科德角湾• 楠塔基特湾• 葡萄园湾• 秃鹰湾• 纳拉甘西特湾• 罗德岛海峡• 布洛克島海峡•渔民岛海峡•长岛海峡• 谢尔特艾兰海峡• 萨格湾 • 佩科尼克湾• 加德纳湾• 烟草批发湾• 萨格港湾• 三英里港• 长滩湾•港口港• 管道湾• 绍尔兹湾• 法兰德斯湾• 纳皮格湾• 堡池湾• 北海港口• 纽约湾• 牙买加湾• 拉里坦湾• 桑迪胡克湾• 特拉华湾• 切萨皮克湾• 阿尔伯马尔湾• 帕姆利科湾 •墨西哥湾•佛罗里达湾•加利福尼亚湾•坦帕湾• 彭萨科拉湾• 移动湾• 朱红湾• 坎佩切湾•加勒比海• 贡纳湾• 洪都拉斯湾• 蚊子湾• 委内瑞拉湾• 帕里亚湾• 达里恩湾• 阿根廷海•挪威海•北海• 瓦登海•波罗的海• 群岛海• 两海• 中波罗的海• 里加湾• 厄勒海峡海峡• 奥兰海 •英吉利海峡• 爱尔兰海• 凯尔特海•比斯开湾• 坎塔布连海• 地中海•亚得里亚海•爱琴海• 阿尔戈里斯湾• 米尔托翁海• 北埃维亚海湾• 萨罗尼克湾• 克里特海• 南埃维亚海湾• 伊卡里亚海• 塞尔迈湾• 色雷斯海• 阿尔沃兰海• 巴利阿里（加泰罗尼亚）海• 狮子湾• 西德拉湾• 爱奥尼亚海• 科林斯湾• 黎凡特海•西里西亚海• 利比亚海• 利古里亚海• 热那亚湾• 撒丁海•西西里海• 戈佐内海•第勒尼安海• 马尔马拉海• 黑海• 亚速海• 几内亚湾• 伊尔明厄海•丹麦海峡• 苏格兰西海岸内海•赫布里底群岛之海</t>
+  </si>
+  <si>
+    <t>每一格是100x100,8大洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北冰洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东日洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南美洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西风洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西欧洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中亚洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中黑洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一格是10x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一格是1x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰小岛（5种，2种占一个格子，2种占4个格子，1种占9个格子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-12个占一个格子装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下情况随机一种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5个占一个格子的及1个占9个格子的装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5个占一个格子的及1-2个占4个格子的装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4个占4个格子的装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现2-3个海怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗:在玩家附近出现1-2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏1-2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据点（20x20有范围内有一个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据点:20x20有范围内有一个,(是否生产资源？)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏点（普通、特殊）：定时随机刷出，特殊宝藏每个大洋只有一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海怪：玩家附近更远一点点出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉船：发生战斗的附近</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +860,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +912,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +1015,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -948,8 +1191,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,8 +1298,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="231">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1088,6 +1397,34 @@
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1175,6 +1512,34 @@
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1763,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:XFD71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
@@ -2909,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Y49" sqref="Y49"/>
     </sheetView>
   </sheetViews>
@@ -2967,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3429,14 +3794,175 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3445,4 +3971,516 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="119.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="255">
+      <c r="B2" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:14" ht="21" customHeight="1">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21" customHeight="1">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="M2" s="30"/>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="21" customHeight="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="21" customHeight="1">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="28"/>
+      <c r="N4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="21" customHeight="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="M5" s="33"/>
+      <c r="N5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="M6" s="32"/>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="21" customHeight="1">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="M7" s="31"/>
+      <c r="N7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="21" customHeight="1">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="34"/>
+      <c r="M8" s="29"/>
+      <c r="N8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="21" customHeight="1">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="M9" s="18"/>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="21" customHeight="1">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:14" ht="21" customHeight="1">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="13" spans="2:14" ht="21" customHeight="1">
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="21" customHeight="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:14" ht="21" customHeight="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="M15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="21" customHeight="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="M16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="21" customHeight="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="2:13" ht="21" customHeight="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:13" ht="21" customHeight="1">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="2:13" ht="21" customHeight="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:13" ht="21" customHeight="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="2:13" ht="21" customHeight="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="2:13" ht="21" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="25" spans="2:13" ht="21" customHeight="1">
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="21" customHeight="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="21" customHeight="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:13" ht="21" customHeight="1">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="21" customHeight="1">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="21" customHeight="1">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="M30" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="21" customHeight="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="M31" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="21" customHeight="1">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="M32" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="21" customHeight="1">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="2:11" ht="21" customHeight="1">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="2:11" ht="21" customHeight="1">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="38" spans="2:11" ht="21" customHeight="1">
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1">
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="21" customHeight="1">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="21" customHeight="1">
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="21" customHeight="1">
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="21" customHeight="1">
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/island/doc/设计.xlsx
+++ b/Assets/island/doc/设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="24360" windowHeight="15360" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24540" windowHeight="15360" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="岛" sheetId="2" r:id="rId1"/>
     <sheet name="建筑" sheetId="1" r:id="rId2"/>
     <sheet name="成长线" sheetId="3" r:id="rId3"/>
-    <sheet name="TODO" sheetId="5" r:id="rId4"/>
-    <sheet name="随记" sheetId="4" r:id="rId5"/>
-    <sheet name="海" sheetId="6" r:id="rId6"/>
-    <sheet name="世界地图" sheetId="7" r:id="rId7"/>
+    <sheet name="世界地图" sheetId="7" r:id="rId4"/>
+    <sheet name="舰队" sheetId="8" r:id="rId5"/>
+    <sheet name="TODO" sheetId="5" r:id="rId6"/>
+    <sheet name="随记" sheetId="4" r:id="rId7"/>
+    <sheet name="海的名字" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TODO!$D$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TODO!$D$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
   <si>
     <t>tileSize:2x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情、升级/加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详情、拆除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情、升级/加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详情：建筑形象、名称、等级、相关属性，说明，下级解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,25 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>游戏封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameLogo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑合批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,14 +518,6 @@
   </si>
   <si>
     <t>粮仓（id=7）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装饰小岛（5种，2种占一个格子，2种占4个格子，1种占9个格子）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-12个占一个格子装饰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>据点:20x20有范围内有一个,(是否生产资源？)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝藏点（普通、特殊）：定时随机刷出，特殊宝藏每个大洋只有一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -769,6 +723,56 @@
   <si>
     <t>沉船：发生战斗的附近</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情、拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情、拆除、升级/加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情、拆除、升级/加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰队的舰船不能再放回造船厂，但设置的舰船数量少于当前舰队的数量时，多的舰船丢弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征需要消耗粮食，舰队在海上可以坚持一定时间，超过时间则舰队沉没。进入港口后，可以重置时间</t>
+  </si>
+  <si>
+    <t>舰队数量根据主城等级来决定，最多是4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当选中舰队时，ui的表示上有变化，比如可以做成船的舵在下向，做成驾驶室的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击其它目标时，可以不需要等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击玩家岛、海盗岛的时，距离如果超过可视距离则不可以攻击，当确认攻击后，不可操作，只能等待舰队驶到玩家然后进入战斗。同时，被攻击玩家也不可能操作（在线的情况下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航标：可以在任意点设置为标记，标记了的点就可以解开迷雾，半径为主城半径的一半。标记的数量根据主城的等级增加而增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据点:其实就是一个港口。20x20范围内有一个,(是否生产资源？)。在设计港口的模型时，要考虑当有舰队停靠时的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰岛：5种，2种占一个格子，2种占4个格子，1种占9个格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui设计</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1019,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1309,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="253">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1425,6 +1451,17 @@
     <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1540,6 +1577,17 @@
     <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1797,6 +1845,56 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317500" y="190500"/>
+          <a:ext cx="7404100" cy="5549900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2128,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:XFD71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
@@ -2930,7 +3028,7 @@
   <dimension ref="B1:C43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2940,7 +3038,7 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="C1" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -2980,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -3020,7 +3118,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -3028,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -3036,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -3044,7 +3142,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -3052,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -3060,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -3068,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -3076,7 +3174,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -3084,7 +3182,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -3092,7 +3190,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -3100,7 +3198,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -3108,7 +3206,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3116,7 +3214,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -3124,7 +3222,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -3132,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -3140,7 +3238,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3148,7 +3246,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -3156,7 +3254,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -3164,7 +3262,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -3172,7 +3270,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3180,7 +3278,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -3188,7 +3286,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -3196,7 +3294,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -3204,7 +3302,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -3212,41 +3310,41 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
         <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -3282,37 +3380,37 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3330,10 +3428,550 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:14" ht="21" customHeight="1">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21" customHeight="1">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="M2" s="30"/>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="21" customHeight="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="21" customHeight="1">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="28"/>
+      <c r="N4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="21" customHeight="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="M5" s="33"/>
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="M6" s="32"/>
+      <c r="N6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="21" customHeight="1">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="M7" s="31"/>
+      <c r="N7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="21" customHeight="1">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="34"/>
+      <c r="M8" s="29"/>
+      <c r="N8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="21" customHeight="1">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="M9" s="18"/>
+      <c r="N9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="21" customHeight="1">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:14" ht="21" customHeight="1">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="13" spans="2:14" ht="21" customHeight="1">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="21" customHeight="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:14" ht="21" customHeight="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="M15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="21" customHeight="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="M16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="21" customHeight="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="2:13" ht="21" customHeight="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:13" ht="21" customHeight="1">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="2:13" ht="21" customHeight="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:13" ht="21" customHeight="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="2:13" ht="21" customHeight="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="2:13" ht="21" customHeight="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="25" spans="2:13" ht="21" customHeight="1">
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="21" customHeight="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="M26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="21" customHeight="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:13" ht="21" customHeight="1">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="21" customHeight="1">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="21" customHeight="1">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="M30" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="21" customHeight="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="M31" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="21" customHeight="1">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="M32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="21" customHeight="1">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="2:11" ht="21" customHeight="1">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="2:11" ht="21" customHeight="1">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="38" spans="2:11" ht="21" customHeight="1">
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1">
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="21" customHeight="1">
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="21" customHeight="1">
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="21" customHeight="1">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="21" customHeight="1">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="21" customHeight="1">
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B33:B38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3347,19 +3985,19 @@
   <sheetData>
     <row r="1" spans="1:7 16384:16384" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7 16384:16384" s="9" customFormat="1">
@@ -3368,16 +4006,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7 16384:16384">
@@ -3386,90 +4024,90 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7 16384:16384">
       <c r="A4" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A4:A21" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7 16384:16384" ht="45">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7 16384:16384">
-      <c r="A5" s="15">
-        <f>ROW()-1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7 16384:16384">
       <c r="A6" s="15">
-        <f t="shared" ref="A6:A30" si="0">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7 16384:16384" ht="45">
+        <v>87</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="XFD6" s="1"/>
+    </row>
+    <row r="7" spans="1:7 16384:16384">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7 16384:16384">
       <c r="A8" s="15">
@@ -3477,19 +4115,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="XFD8" s="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:7 16384:16384">
       <c r="A9" s="15">
@@ -3497,13 +4133,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -3513,17 +4149,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:7 16384:16384">
       <c r="A11" s="15">
@@ -3531,13 +4165,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -3547,13 +4181,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -3563,13 +4197,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -3578,49 +4212,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:7 16384:16384">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7 16384:16384">
       <c r="A16" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
@@ -3673,98 +4287,8 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15">
-        <f>ROW()-1</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="15">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="15">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D30"/>
+  <autoFilter ref="D1:D21"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -3792,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B34"/>
   <sheetViews>
@@ -3804,162 +4328,162 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3973,12 +4497,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3988,7 +4512,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="255">
       <c r="B2" s="27" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4000,487 +4524,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N43"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="2:14" ht="21" customHeight="1">
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="21" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="M2" s="30"/>
-      <c r="N2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="21" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="21" customHeight="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="M4" s="28"/>
-      <c r="N4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="21" customHeight="1">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="M5" s="33"/>
-      <c r="N5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" customHeight="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="M6" s="32"/>
-      <c r="N6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="21" customHeight="1">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="M7" s="31"/>
-      <c r="N7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="21" customHeight="1">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="34"/>
-      <c r="M8" s="29"/>
-      <c r="N8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="21" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="M9" s="18"/>
-      <c r="N9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="21" customHeight="1">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="2:14" ht="21" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="13" spans="2:14" ht="21" customHeight="1">
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="21" customHeight="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:14" ht="21" customHeight="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="M15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="21" customHeight="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="M16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="21" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:13" ht="21" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:13" ht="21" customHeight="1">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:13" ht="21" customHeight="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="2:13" ht="21" customHeight="1">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:13" ht="21" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="2:13" ht="21" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="25" spans="2:13" ht="21" customHeight="1">
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="21" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="M26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="21" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" ht="21" customHeight="1">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="M28" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="21" customHeight="1">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="M29" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="21" customHeight="1">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="M30" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="21" customHeight="1">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="M31" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="21" customHeight="1">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="M32" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="21" customHeight="1">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" spans="2:11" ht="21" customHeight="1">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="2:11" ht="21" customHeight="1">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="38" spans="2:11" ht="21" customHeight="1">
-      <c r="B38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="21" customHeight="1">
-      <c r="B39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="21" customHeight="1">
-      <c r="B40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="21" customHeight="1">
-      <c r="B41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="21" customHeight="1">
-      <c r="B42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="21" customHeight="1">
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>